--- a/mbs-perturbation/chatty/multinomialNB/nearmiss/chatty-multinomialNB-nearmiss-results.xlsx
+++ b/mbs-perturbation/chatty/multinomialNB/nearmiss/chatty-multinomialNB-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8444444444444446</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.6703296703296704</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8285714285714285</v>
+        <v>0.4505494505494506</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.7916666666666665</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6">
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C6" t="n">
         <v>0.5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4949494949494949</v>
       </c>
       <c r="E6" t="n">
         <v>0.5</v>
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6</v>
+        <v>0.5428571428571429</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6679365079365081</v>
+        <v>0.5276529026529027</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.5599999999999999</v>
       </c>
     </row>
   </sheetData>
